--- a/base_2/Book2.xlsx
+++ b/base_2/Book2.xlsx
@@ -8,42 +8,45 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kashimataichi/play_python/excel_python/base_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C6CD65-CF40-FA45-B86B-B3814AF0977C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46FCE06-ED89-474A-A7E3-8666032500CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="2060" windowWidth="27900" windowHeight="16940" xr2:uid="{1ADE6968-97AD-C049-837B-2EE18122DE6E}"/>
+    <workbookView xWindow="3040" yWindow="2060" windowWidth="27900" windowHeight="16940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="max_min_row" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="9">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>県名</t>
+  </si>
+  <si>
+    <t>売上</t>
+  </si>
+  <si>
+    <t>京都府</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>県名</t>
+    <t>地名</t>
     <rPh sb="0" eb="2">
-      <t>ケンメイ</t>
+      <t>チメイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -55,8 +58,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>京都府</t>
-    <rPh sb="0" eb="3">
+    <t>京都</t>
+    <rPh sb="0" eb="2">
       <t>キョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -118,18 +121,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="38" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="38" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -446,10 +452,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8726C5-FCCC-F646-ADA2-A6689EF92A9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0"/>
+    <sheetView zoomScale="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
@@ -691,7 +697,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866F16DC-2137-CB4F-96BD-00451327ADF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -703,14 +728,103 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DFDF72-FFEB-6B43-ABC5-F53077F5F695}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4C9F8F-7E11-5343-80A8-6085CCEC9ED9}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
